--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1501.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1501.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.34877494325232</v>
+        <v>1.288738369941711</v>
       </c>
       <c r="B1">
-        <v>2.274130836171744</v>
+        <v>2.161528825759888</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.23831844329834</v>
       </c>
       <c r="D1">
-        <v>1.783127980859683</v>
+        <v>0.5777249336242676</v>
       </c>
       <c r="E1">
-        <v>0.8064370388039317</v>
+        <v>0.6801949739456177</v>
       </c>
     </row>
   </sheetData>
